--- a/addressbook-web-tests/groups.xlsx
+++ b/addressbook-web-tests/groups.xlsx
@@ -26,22 +26,22 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>]</t>
-  </si>
-  <si>
-    <t>6MUYC%^1\:2LMAM1N9^=^F*BC%QJUKKOR60Z@?,.IN=E-K3!PN :+@aRC37&gt;64=2PE[71TR0,PU0(E6YSP['J1C27@7-(OY</t>
-  </si>
-  <si>
-    <t>1,VIP]Q]]Q-&lt;LPI_^?LG96H?"JaR=E(?X</t>
-  </si>
-  <si>
-    <t>a]PN)</t>
-  </si>
-  <si>
-    <t>``,Z$'GHW90J#2^\E7G']`@8JPE-PM.06VH;*O;\#9\#5?&lt;FC%99&amp;"[ ?U05B:X*+a4.KCRV]L#D$=#+4aKK4</t>
-  </si>
-  <si>
-    <t>*4\H\6?&amp;9JBRZ5+.[a4D=;`7^#S%!CP-W5W 3$H&lt;8W3:"3DN &amp;&amp;L7R9P5EKYD9%X\5[D@+\W9Y,G(F4K@$%]</t>
+    <t>4.;^</t>
+  </si>
+  <si>
+    <t>4MM-P;2?3Z?Y-&gt;G@GLF/-(,RS^KTKQ4)&gt;(79`-PH(B&gt;["IV$I\NCVO?,A\;SR?UCF6;%</t>
+  </si>
+  <si>
+    <t>.B:]_'LK2P+</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>P#R5QI+Z$S^XKN\5</t>
+  </si>
+  <si>
+    <t>.Q^&lt;;3FXHTB/+0J+4%?U!K=]5&gt;H`'=_P_#^8IP5Q,&gt;)WKKZC4L6H=@LD4!'^LGP*VS1(3</t>
   </si>
 </sst>
 </file>
